--- a/input/bessereheader/mapping.xlsx
+++ b/input/bessereheader/mapping.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerald/Documents/Datenjournalist/Journalismus/addendum/2019-gemeindefusionen/input/bessereheader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8966E6-C44C-C246-94B9-CAF2D57B2B67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93357A4-0F66-554F-A5E6-939F96175323}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1460" windowWidth="27440" windowHeight="15460" xr2:uid="{3081D334-C74E-C142-844C-376A9E11925D}"/>
+    <workbookView xWindow="36000" yWindow="-1160" windowWidth="27440" windowHeight="15460" xr2:uid="{3081D334-C74E-C142-844C-376A9E11925D}"/>
   </bookViews>
   <sheets>
     <sheet name="ansaetze" sheetId="1" r:id="rId1"/>
     <sheet name="posten" sheetId="2" r:id="rId2"/>
     <sheet name="haushalt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Zentralamt</t>
   </si>
@@ -53,60 +53,30 @@
     <t>bezeichnung</t>
   </si>
   <si>
-    <t>040       </t>
-  </si>
-  <si>
     <t>Fahrzeuge</t>
   </si>
   <si>
-    <t>042       </t>
-  </si>
-  <si>
     <t>Amtsausstattung</t>
   </si>
   <si>
-    <t>600       </t>
-  </si>
-  <si>
     <t>Strom</t>
   </si>
   <si>
-    <t>601       </t>
-  </si>
-  <si>
     <t>Gas</t>
   </si>
   <si>
-    <t>602       </t>
-  </si>
-  <si>
     <t>Wasser</t>
   </si>
   <si>
-    <t>603       </t>
-  </si>
-  <si>
     <t>Wärme</t>
   </si>
   <si>
-    <t>614       </t>
-  </si>
-  <si>
     <t>Instandhaltung von Gebäuden</t>
   </si>
   <si>
-    <t>617       </t>
-  </si>
-  <si>
     <t>Instandhaltung von Fahrzeugen</t>
   </si>
   <si>
-    <t>723       </t>
-  </si>
-  <si>
-    <t>Amtspauschalien und Repräsentationsausgaben</t>
-  </si>
-  <si>
     <t>posten</t>
   </si>
   <si>
@@ -156,6 +126,63 @@
   </si>
   <si>
     <t>Wirtschaftshoefe (Bauhof)</t>
+  </si>
+  <si>
+    <t>Amtspauschalien und Repraesentationsausgaben</t>
+  </si>
+  <si>
+    <t>Sonstige Nebengebühren</t>
+  </si>
+  <si>
+    <t>Kapitaltransfers an private Organisationen ohne Erwerbszweck</t>
+  </si>
+  <si>
+    <t>Transfers an private Organisationen ohne Erwerbszweck</t>
+  </si>
+  <si>
+    <t>Entgelte für sonstige Leistungen</t>
+  </si>
+  <si>
+    <t>sonstige Ausgaben</t>
+  </si>
+  <si>
+    <t>Gebäude und Bauten</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>Residualgröße</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>Mietzins</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>000</t>
   </si>
 </sst>
 </file>
@@ -221,12 +248,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -544,69 +573,72 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>0</v>
+      <c r="A2" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>22</v>
+      <c r="A4" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>31</v>
+      <c r="A7" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>163</v>
       </c>
       <c r="B8" t="s">
@@ -614,7 +646,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>400</v>
       </c>
       <c r="B9" t="s">
@@ -622,15 +654,15 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>820</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <v>821</v>
       </c>
       <c r="B11" t="s">
@@ -638,7 +670,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -647,152 +679,216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D189122-78A4-D84F-82C1-9FBEE454D4D4}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>26</v>
+      <c r="A1" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="4">
+        <v>600</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4">
+        <v>601</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
+        <v>602</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
+        <v>603</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4">
+        <v>614</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4">
+        <v>617</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="4">
+        <v>723</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4">
+        <v>500</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="4">
+        <v>501</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4">
+        <v>510</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="4">
+        <v>511</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4">
+        <v>520</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="4">
+        <v>563</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4">
+        <v>565</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>500</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>501</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>510</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>511</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>520</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>563</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>565</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4">
+        <v>569</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4">
+        <v>728</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4">
+        <v>729</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4">
+        <v>757</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4">
+        <v>777</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -804,49 +900,49 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/input/bessereheader/mapping.xlsx
+++ b/input/bessereheader/mapping.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerald/Documents/Datenjournalist/Journalismus/addendum/2019-gemeindefusionen/input/bessereheader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93357A4-0F66-554F-A5E6-939F96175323}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC79DC68-C4BC-EB47-A7D2-BBEC092A1FFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="-1160" windowWidth="27440" windowHeight="15460" xr2:uid="{3081D334-C74E-C142-844C-376A9E11925D}"/>
+    <workbookView xWindow="36000" yWindow="-1160" windowWidth="27440" windowHeight="15460" activeTab="1" xr2:uid="{3081D334-C74E-C142-844C-376A9E11925D}"/>
   </bookViews>
   <sheets>
     <sheet name="ansaetze" sheetId="1" r:id="rId1"/>
     <sheet name="posten" sheetId="2" r:id="rId2"/>
     <sheet name="haushalt" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">posten!$A$1:$B$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -572,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F851242-1AAF-DD43-A0AD-037942D1A4C5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -681,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D189122-78A4-D84F-82C1-9FBEE454D4D4}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -700,130 +703,130 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4">
-        <v>600</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4">
-        <v>601</v>
+      <c r="A5" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4">
-        <v>602</v>
+      <c r="A6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4">
-        <v>603</v>
+        <v>777</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4">
-        <v>614</v>
+        <v>757</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4">
-        <v>617</v>
+        <v>729</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4">
-        <v>500</v>
+        <v>723</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4">
-        <v>501</v>
+        <v>617</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4">
-        <v>510</v>
+        <v>614</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4">
-        <v>511</v>
+        <v>603</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -836,61 +839,66 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4">
-        <v>728</v>
+        <v>565</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4">
-        <v>729</v>
+        <v>563</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4">
-        <v>757</v>
+        <v>520</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4">
-        <v>777</v>
+        <v>511</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>40</v>
+      <c r="A23" s="4">
+        <v>510</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>43</v>
+      <c r="A24" s="4">
+        <v>501</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>45</v>
+      <c r="A25" s="4">
+        <v>500</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B25" xr:uid="{EDBB2426-8C0A-A241-BBC0-BBFB9F9DB4A5}">
+    <sortState ref="A2:B25">
+      <sortCondition descending="1" ref="A1:A25"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
